--- a/excel till 10_12_17.xlsx
+++ b/excel till 10_12_17.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vital\Desktop\excel from 1 st nov to 10th nov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vital\OneDrive\Documents\Fabril-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>DATE</t>
   </si>
@@ -79,36 +79,6 @@
   </si>
   <si>
     <t>s9</t>
-  </si>
-  <si>
-    <t>130 nelson cr</t>
-  </si>
-  <si>
-    <t>12 Henley cr</t>
-  </si>
-  <si>
-    <t>2 Amner pl</t>
-  </si>
-  <si>
-    <t>5A corry ave</t>
-  </si>
-  <si>
-    <t>surface mount</t>
-  </si>
-  <si>
-    <t>54 Clarance cox</t>
-  </si>
-  <si>
-    <t>connect closed on 11</t>
-  </si>
-  <si>
-    <t>4/10 faraday st</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>Hauling</t>
   </si>
 </sst>
 </file>
@@ -498,7 +468,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A7" sqref="A7:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -633,129 +603,57 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>42928</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4238941</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>42959</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4530514</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>42959</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2684912</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>42990</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4388667</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>42867</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4493400</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>43042</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3339330</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
